--- a/PPP/Testcase_3 test 00 เอาอันนี้.xlsx
+++ b/PPP/Testcase_3 test 00 เอาอันนี้.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="128">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -198,28 +198,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>ทำการกรอกข้อมูลเสนอหัวข้อโครงงาน</t>
-  </si>
-  <si>
-    <t>*ช่องว่างคือไมได้ใส่หรือเลือก</t>
-  </si>
-  <si>
     <t>ไม่ได้เลือก</t>
   </si>
   <si>
     <t>ไม่ได้ใส่</t>
-  </si>
-  <si>
-    <t>เลือกอาจารย์ที่ปรึกษาไม่ซ้ำ</t>
-  </si>
-  <si>
-    <t>เลือกกรรมการไม่ซ้ำ</t>
-  </si>
-  <si>
-    <t>เลือกอาจารย์ที่ปรึกษาร่วมไม่ซ้ำ</t>
-  </si>
-  <si>
-    <t>ไม่ซ้ำใน DB</t>
   </si>
   <si>
     <r>
@@ -248,7 +230,158 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>แจ้งเตือนว่าไม่ได้เลือกอาจารย์</t>
+      <t>แจ้งเตือนว่ามีการเลือกอาจารย์ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าไม่ได้เลือกกรรมการ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>เลือกอาจารย์ที่ปรึกษา</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ไม่ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>เลือกอาจารย์ที่ปรึกษาร่วม</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ไม่ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>เลือกกรรมการ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ไม่ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ไม่ซ้ำ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ใน DB</t>
+    </r>
+  </si>
+  <si>
+    <t>* X คือ Don't Care คือ 1, 0, หรือ ไม่ได้เลือก/ใส่</t>
+  </si>
+  <si>
+    <t>มีโครงงานแล้ว</t>
+  </si>
+  <si>
+    <t>ยังไม่มีโครงงาน</t>
+  </si>
+  <si>
+    <t>ไม่ได้ใส่ ID นิสิต3</t>
+  </si>
+  <si>
+    <t>ไม่ได้ใส่ ID นิสิต2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">รอการยืนยัน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ทำ3คน)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">รอการยืนยัน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ทำ2คน)</t>
     </r>
   </si>
   <si>
@@ -265,9 +398,16 @@
       </rPr>
       <t>รอการยืนยัน</t>
     </r>
-  </si>
-  <si>
-    <t>*X คือ Don't Care</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ทำคนเดียว)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -281,7 +421,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>แจ้งเตือนว่ามีการเลือกอาจารย์ซ้ำ</t>
+      <t>แจ้งเตือนว่านิสิต2มีโครงงานแล้ว</t>
     </r>
   </si>
   <si>
@@ -296,15 +436,294 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>แจ้งเตือนว่านิสิต3มีโครงงานแล้ว</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ่งเตือนว่าIDนิสิต3ไม่มีในDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าIDนิสิต3ไม่มีในDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าIDนิสิต2ไม่มีในDB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าใส่รหัสนิสิตซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <t>ใส่รหัสซ้ำกับนิสิต1</t>
+  </si>
+  <si>
+    <t>ใส่รหัสซ้ำกับนิสิต3</t>
+  </si>
+  <si>
+    <t>ใส่รหัสซ้ำกับนิสิต2</t>
+  </si>
+  <si>
+    <t>CPE01 ขั้นตอนแก้ไขข้อมูล</t>
+  </si>
+  <si>
+    <t>ทำการแก้ไขข้อมูลเสนอหัวข้อโครงงาน</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่อโครงงานอย่างเดียว</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แก้ไขสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>รอการยืนยัน</t>
+    </r>
+  </si>
+  <si>
+    <t>ทำการแก้ไขข้อมูลเสนอหัวข้อโครงงานและกดEdit</t>
+  </si>
+  <si>
+    <t>ทำการกรอกข้อมูลเสนอหัวข้อโครงงานและกดSave</t>
+  </si>
+  <si>
+    <t>เปลี่ยนรหัสนิสิตของสมาชิก</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แก้ไขไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เพราะบังคับห้ามเปลี่ยนรหัสในขั้นตอนนี้</t>
+    </r>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็นไม่มีอาจารย์ที่ปรึกษาร่วมเพียงอย่างเดียว</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาและชื่ออาจารย์ไม่ซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาร่วมละชื่ออาจารย์ไม่ซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่อกรรมการและชื่ออาจารย์ไม่ซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาและชื่ออาจารย์ซ้ำ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แก้ไขไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่ามีการเลือกอาจารย์ซ้ำ</t>
+    </r>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาร่วมและชื่ออาจารย์ซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลียนชื่อคณะกรรมการและชื่ออาจารย์ไม่ซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาและอาจารย์ที่ปรึกษาร่วมแต่ชื่อซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาและชื่อกรรมการแต่ชื่อซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษาร่วมและชื่อกรรมการแต่ชื่อซ้ำ</t>
+  </si>
+  <si>
+    <t>นำชื่ออาจารย์ที่ปรึกษาออก</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">บันทึกไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าไม่ได้เลือกอาจารย์ที่ปรึกษา</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แก้ไขไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>แจ้งเตือนว่าไม่ได้เลือกอาจารย์ที่ปรึกษา</t>
+    </r>
+  </si>
+  <si>
+    <t>นำชื่อกรรรมการออก</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แก้ไขไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>แจ้งเตือนว่าไม่ได้เลือกกรรมการ</t>
     </r>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษา อาจารย์ที่ปรึกษาร่วม และกรรมการ แต่มีชื่อซ้ำ</t>
+  </si>
+  <si>
+    <t>เปลี่ยนชื่ออาจารย์ที่ปรึกษา อาจารย์ที่ปรึกษาร่วม และกรรมการ และไม่มีชื่อซ้ำ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login ไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>จะแสดงPop Upว่าไม่มีชื่อบัญชีนี้</t>
+    </r>
+  </si>
+  <si>
+    <t>Login สำเร็จ</t>
+  </si>
+  <si>
+    <t>CPE01 ขั้นตอนการกรอกข้อมูล</t>
+  </si>
+  <si>
+    <t>กดออกจากกลุ่มในหน้า SENIOR PROJECT เพื่อเปลี่ยนสมาชิก</t>
+  </si>
+  <si>
+    <t>สามารถใส่สมาชิกใหม่ได้ เพราะออกจากกลุ่มแล้ว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">มีนิสิตกดออกจากกลุ่ม </t>
+  </si>
+  <si>
+    <t>มีนิสิตที่ยังไม่ได้ออกจากกลุ่ม มาดูข้อมูล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จะมีช่องรหัสว่าง </t>
+  </si>
+  <si>
+    <t>มีช่องรหัสว่าง และต้องการใส่สมาชิกเพิ่มในขั้นตอนการแก้ไขข้อมูล</t>
+  </si>
+  <si>
+    <t>ตรวจการใส่ชื่อโครงการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตรวจการเลือกอาจารย์ซ้ำ </t>
+  </si>
+  <si>
+    <t>ตรวจการไม่ได้เลือกกรรมการ อาจารย์</t>
+  </si>
+  <si>
+    <t>ตรวจนิสิตมีโครงการแล้ว ไม่มีในฐานข้อมูล (แล้วแต่การเรียง)</t>
+  </si>
+  <si>
+    <t>ตรวจการใส่รหัสนิสิตซ้ำ</t>
+  </si>
+  <si>
+    <t>CPE02 แบบบันทึกการดำเนินงานโครงงานวิศวกรรมคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทำการLogin โดยกดปุ่ม Sign In </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,14 +785,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +844,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -716,12 +1150,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -761,12 +1206,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,6 +1215,51 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -812,90 +1296,190 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,16 +1803,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="24">
       <c r="A2" s="1" t="s">
@@ -1277,10 +1861,10 @@
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="13"/>
@@ -1295,8 +1879,8 @@
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1309,8 +1893,8 @@
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1323,8 +1907,8 @@
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1337,8 +1921,8 @@
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1351,8 +1935,8 @@
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1365,7 +1949,7 @@
       <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1663,7 +2247,7 @@
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1679,7 +2263,7 @@
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +2277,7 @@
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1707,8 +2291,8 @@
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="46"/>
+      <c r="D41" s="48" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="13"/>
@@ -1721,8 +2305,8 @@
       <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="36"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -1733,8 +2317,8 @@
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -1745,8 +2329,8 @@
       <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="36"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -1757,8 +2341,8 @@
       <c r="B45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -1814,7 +2398,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="13"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="13"/>
@@ -1826,7 +2410,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="13"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -1854,1377 +2438,2808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A8:S53"/>
+  <dimension ref="A2:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="20" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="4.125" customWidth="1"/>
     <col min="9" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="2.625" customWidth="1"/>
-    <col min="13" max="13" width="3.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="15" max="15" width="3.375" customWidth="1"/>
-    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="7.75" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="9.75" customWidth="1"/>
+    <col min="16" max="16" width="7.75" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="28.875" customWidth="1"/>
-    <col min="19" max="19" width="39.625" customWidth="1"/>
+    <col min="18" max="18" width="38" customWidth="1"/>
+    <col min="19" max="19" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:19">
-      <c r="B8" s="25" t="s">
+    <row r="2" spans="1:19">
+      <c r="B2" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="106"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="71"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="71"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="71"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="59" t="s">
+    <row r="13" spans="1:19">
+      <c r="B13" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="14.25" customHeight="1">
+      <c r="B17" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="76"/>
+      <c r="L17" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="75"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="75"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1">
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="74"/>
+      <c r="S19" s="75"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="B20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B13" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="65"/>
-    </row>
-    <row r="16" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="65"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="39">
-        <v>1</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="39">
-        <v>1</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39">
-        <v>1</v>
-      </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="39">
-        <v>1</v>
-      </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="N20" s="62"/>
+      <c r="O20" s="24" t="s">
         <v>70</v>
       </c>
+      <c r="P20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="75"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="39">
-        <v>1</v>
-      </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39">
-        <v>1</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39">
-        <v>1</v>
-      </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39">
-        <v>1</v>
-      </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-      <c r="O21" s="39">
-        <v>1</v>
-      </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="20">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>8</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14.25" customHeight="1">
       <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="66">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66">
-        <v>0</v>
-      </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66">
-        <v>0</v>
-      </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>9</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="51"/>
+      <c r="L22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="69"/>
+      <c r="S22" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="14.25" customHeight="1">
       <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="66">
-        <v>0</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66">
-        <v>0</v>
-      </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="39">
-        <v>1</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="58"/>
+      <c r="L23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="69"/>
+      <c r="S23" s="90" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="66">
-        <v>0</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="39">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="66">
-        <v>0</v>
-      </c>
-      <c r="K24" s="66"/>
-      <c r="L24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="39"/>
-      <c r="N24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="51">
+        <v>1</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="52"/>
+      <c r="J24" s="51">
+        <v>1</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>1</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0</v>
+      </c>
+      <c r="O24" s="27">
+        <v>0</v>
+      </c>
+      <c r="P24" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>0</v>
+      </c>
+      <c r="R24" s="69"/>
+      <c r="S24" s="89" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="39">
-        <v>1</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="66">
-        <v>0</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66">
-        <v>0</v>
-      </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S25" t="s">
-        <v>72</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="51">
+        <v>1</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51">
+        <v>1</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51">
+        <v>1</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="27">
+        <v>0</v>
+      </c>
+      <c r="M25" s="27">
+        <v>1</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0</v>
+      </c>
+      <c r="O25" s="27">
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>0</v>
+      </c>
+      <c r="R25" s="69"/>
+      <c r="S25" s="89" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="39">
-        <v>1</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="S26" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="51">
+        <v>1</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="J26" s="51">
+        <v>1</v>
+      </c>
+      <c r="K26" s="51"/>
+      <c r="L26" s="27">
+        <v>0</v>
+      </c>
+      <c r="M26" s="27">
+        <v>1</v>
+      </c>
+      <c r="N26" s="27">
+        <v>0</v>
+      </c>
+      <c r="O26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="89" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27">
-        <v>11</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="39">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="20" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="51">
+        <v>1</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51">
+        <v>1</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
+      <c r="K27" s="51"/>
+      <c r="L27" s="27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="89" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="B28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51" t="s">
-        <v>59</v>
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="51">
+        <v>1</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="52"/>
+      <c r="J28" s="51">
+        <v>1</v>
       </c>
       <c r="K28" s="51"/>
-      <c r="L28" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="L28" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="27">
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>0</v>
+      </c>
+      <c r="R28" s="69"/>
+      <c r="S28" s="89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="51">
+        <v>1</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51">
+        <v>1</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51">
+        <v>1</v>
+      </c>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="27">
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>0</v>
+      </c>
+      <c r="R29" s="69"/>
+      <c r="S29" s="89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="51">
+        <v>1</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="S28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="20"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="20"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="51">
+        <v>1</v>
+      </c>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="91" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="20"/>
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="58">
+        <v>1</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58">
+        <v>1</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58">
+        <v>1</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="90" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="20"/>
-    </row>
-    <row r="33" spans="2:17">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="20"/>
-    </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="20"/>
-    </row>
-    <row r="35" spans="2:17">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="20"/>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="20"/>
-    </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="20"/>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="20"/>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="20"/>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="20"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="20"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="20"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="20"/>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="20"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="20"/>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="55">
+        <v>0</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55">
+        <v>0</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55">
+        <v>0</v>
+      </c>
+      <c r="K32" s="55"/>
+      <c r="L32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="69"/>
+      <c r="S32" s="88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="52">
+        <v>0</v>
+      </c>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52">
+        <v>0</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="51"/>
+      <c r="L33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="69"/>
+      <c r="S33" s="89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="52">
+        <v>0</v>
+      </c>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52">
+        <v>0</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" s="69"/>
+      <c r="S34" s="89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="77">
+        <v>0</v>
+      </c>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77">
+        <v>0</v>
+      </c>
+      <c r="K35" s="77"/>
+      <c r="L35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" s="69"/>
+      <c r="S35" s="90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53">
+        <v>1</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="51">
+        <v>1</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="69"/>
+      <c r="S36" s="89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="58">
+        <v>1</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58">
+        <v>1</v>
+      </c>
+      <c r="I37" s="58"/>
+      <c r="J37" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="77"/>
+      <c r="L37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="69"/>
+      <c r="S37" s="90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="57">
+        <v>1</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="55"/>
+      <c r="J38" s="57">
+        <v>1</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="28">
+        <v>1</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="69"/>
+      <c r="S38" s="92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="51">
+        <v>1</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51">
+        <v>1</v>
+      </c>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51">
+        <v>1</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="25">
+        <v>1</v>
+      </c>
+      <c r="M39" s="27">
+        <v>0</v>
+      </c>
+      <c r="N39" s="27">
+        <v>0</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R39" s="69"/>
+      <c r="S39" s="91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="51">
+        <v>1</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="J40" s="51">
+        <v>1</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="25">
+        <v>1</v>
+      </c>
+      <c r="P40" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="27">
+        <v>0</v>
+      </c>
+      <c r="R40" s="69"/>
+      <c r="S40" s="89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="58">
+        <v>1</v>
+      </c>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58">
+        <v>1</v>
+      </c>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58">
+        <v>1</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="30">
+        <v>0</v>
+      </c>
+      <c r="M41" s="30">
+        <v>1</v>
+      </c>
+      <c r="N41" s="30">
+        <v>0</v>
+      </c>
+      <c r="O41" s="37">
+        <v>1</v>
+      </c>
+      <c r="P41" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>0</v>
+      </c>
+      <c r="R41" s="69"/>
+      <c r="S41" s="90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="51">
+        <v>1</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="51">
+        <v>1</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="27">
+        <v>0</v>
+      </c>
+      <c r="P42" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="25">
+        <v>1</v>
+      </c>
+      <c r="R42" s="69"/>
+      <c r="S42" s="91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="51">
+        <v>1</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51">
+        <v>1</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51">
+        <v>1</v>
+      </c>
+      <c r="K43" s="51"/>
+      <c r="L43" s="27">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
+        <v>1</v>
+      </c>
+      <c r="N43" s="27">
+        <v>0</v>
+      </c>
+      <c r="O43" s="33">
+        <v>0</v>
+      </c>
+      <c r="P43" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="38">
+        <v>1</v>
+      </c>
+      <c r="R43" s="69"/>
+      <c r="S43" s="91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="51">
+        <v>1</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="52"/>
+      <c r="J44" s="51">
+        <v>1</v>
+      </c>
+      <c r="K44" s="51"/>
+      <c r="L44" s="27">
+        <v>0</v>
+      </c>
+      <c r="M44" s="33">
+        <v>0</v>
+      </c>
+      <c r="N44" s="38">
+        <v>1</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R44" s="69"/>
+      <c r="S44" s="91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="58">
+        <v>1</v>
+      </c>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58">
+        <v>1</v>
+      </c>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58">
+        <v>1</v>
+      </c>
+      <c r="K45" s="58"/>
+      <c r="L45" s="30">
+        <v>0</v>
+      </c>
+      <c r="M45" s="35">
+        <v>0</v>
+      </c>
+      <c r="N45" s="79">
+        <v>1</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R45" s="69"/>
+      <c r="S45" s="93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="51">
+        <v>1</v>
+      </c>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="51">
+        <v>1</v>
+      </c>
+      <c r="K46" s="51"/>
+      <c r="L46" s="27">
+        <v>0</v>
+      </c>
+      <c r="M46" s="27">
+        <v>1</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="51">
+        <v>1</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51">
+        <v>1</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51">
+        <v>1</v>
+      </c>
+      <c r="K47" s="51"/>
+      <c r="L47" s="27">
+        <v>0</v>
+      </c>
+      <c r="M47" s="27">
+        <v>1</v>
+      </c>
+      <c r="N47" s="27">
+        <v>0</v>
+      </c>
+      <c r="O47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="51">
+        <v>1</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="52"/>
+      <c r="J48" s="51">
+        <v>1</v>
+      </c>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="27">
+        <v>0</v>
+      </c>
+      <c r="P48" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>0</v>
+      </c>
+      <c r="R48" s="69"/>
+      <c r="S48" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="51">
+        <v>1</v>
+      </c>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51">
+        <v>1</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51">
+        <v>1</v>
+      </c>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="27">
+        <v>0</v>
+      </c>
+      <c r="P49" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="27">
+        <v>0</v>
+      </c>
+      <c r="R49" s="69"/>
+      <c r="S49" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="51">
+        <v>1</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="52"/>
+      <c r="J50" s="51">
+        <v>1</v>
+      </c>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="58">
+        <v>1</v>
+      </c>
+      <c r="G52" s="58"/>
+      <c r="H52" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="77"/>
+      <c r="J52" s="58">
+        <v>1</v>
+      </c>
+      <c r="K52" s="58"/>
+      <c r="L52" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="B55" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="B56" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="U56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="113"/>
+      <c r="L57" s="113"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58">
+        <v>41</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60">
+        <v>43</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61">
+        <v>44</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="113"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64">
+        <v>47</v>
+      </c>
+      <c r="B64" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65">
+        <v>48</v>
+      </c>
+      <c r="B65" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66">
+        <v>49</v>
+      </c>
+      <c r="B66" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="70"/>
+      <c r="P66" s="70"/>
+      <c r="Q66" s="70"/>
+      <c r="R66" s="70"/>
+      <c r="S66" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68">
+        <v>51</v>
+      </c>
+      <c r="B68" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="113"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69">
+        <v>52</v>
+      </c>
+      <c r="B69" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70">
+        <v>53</v>
+      </c>
+      <c r="B70" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="70"/>
+      <c r="R70" s="70"/>
+      <c r="S70" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71">
+        <v>54</v>
+      </c>
+      <c r="B71" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
+      <c r="R71" s="70"/>
+      <c r="S71" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72">
+        <v>55</v>
+      </c>
+      <c r="B72" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70"/>
+      <c r="Q72" s="70"/>
+      <c r="R72" s="70"/>
+      <c r="S72" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73">
+        <v>56</v>
+      </c>
+      <c r="B73" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="70"/>
+      <c r="S73" s="114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74">
+        <v>57</v>
+      </c>
+      <c r="B74" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75">
+        <v>58</v>
+      </c>
+      <c r="B75" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="113"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="95"/>
+      <c r="N76" s="78"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="78"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="B77" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="78"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78">
+        <v>59</v>
+      </c>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="78"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="78"/>
+      <c r="R78" s="78"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="78"/>
+      <c r="R79" s="78"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="218">
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L29:M29"/>
+  <mergeCells count="186">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="L4:O10"/>
+    <mergeCell ref="P4:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B80:M80"/>
+    <mergeCell ref="N80:R80"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="N58:R73"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="B76:M76"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B71:M71"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:M73"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="B65:M65"/>
+    <mergeCell ref="B66:M66"/>
+    <mergeCell ref="B67:M67"/>
+    <mergeCell ref="B68:M68"/>
+    <mergeCell ref="B69:M69"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B61:M61"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B64:M64"/>
+    <mergeCell ref="B56:M56"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R21:R52"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R16:R20"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="J17:K20"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="F17:G20"/>
+    <mergeCell ref="H17:I20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="O31:P31"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="B13:C15"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="L13:N14"/>
-    <mergeCell ref="O13:Q14"/>
-    <mergeCell ref="R12:R16"/>
-    <mergeCell ref="S12:S16"/>
-    <mergeCell ref="J13:K16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F13:G16"/>
-    <mergeCell ref="H13:I16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PPP/Testcase_3 test 00 เอาอันนี้.xlsx
+++ b/PPP/Testcase_3 test 00 เอาอันนี้.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -722,8 +722,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1260,137 +1260,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1413,78 +1287,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1500,7 +1503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1542,7 +1545,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,9 +1577,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1608,6 +1612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1783,14 +1788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
@@ -1802,19 +1807,19 @@
     <col min="8" max="8" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="24">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1854,17 +1859,17 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="13"/>
@@ -1872,84 +1877,84 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1.2</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1.3</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1.4</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1.5</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1.6</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1.7</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
@@ -1958,7 +1963,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1972,7 +1977,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>2.1</v>
       </c>
@@ -1984,7 +1989,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -1996,7 +2001,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>2.2999999999999998</v>
       </c>
@@ -2008,7 +2013,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>2.4</v>
       </c>
@@ -2020,7 +2025,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>2.5</v>
       </c>
@@ -2032,7 +2037,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2041,7 +2046,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>46</v>
@@ -2055,7 +2060,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2065,7 +2070,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2075,7 +2080,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2085,7 +2090,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2095,7 +2100,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2105,7 +2110,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2115,7 +2120,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2125,10 +2130,10 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2138,7 +2143,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2148,7 +2153,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2158,7 +2163,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2168,7 +2173,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2178,7 +2183,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2188,7 +2193,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2198,7 +2203,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2208,7 +2213,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2218,7 +2223,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2228,7 +2233,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>2</v>
       </c>
@@ -2242,12 +2247,12 @@
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -2258,12 +2263,12 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
@@ -2272,12 +2277,12 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
@@ -2286,13 +2291,13 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="48" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="13"/>
@@ -2300,55 +2305,55 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="49"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="49"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="49"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="50"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="17" t="s">
         <v>35</v>
@@ -2364,7 +2369,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>36</v>
@@ -2380,7 +2385,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>37</v>
@@ -2396,9 +2401,9 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="55" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="13"/>
@@ -2408,9 +2413,9 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -2418,7 +2423,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>38</v>
       </c>
@@ -2437,14 +2442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:R9"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
@@ -2463,343 +2468,343 @@
     <col min="15" max="15" width="9.75" customWidth="1"/>
     <col min="16" max="16" width="7.75" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="38" customWidth="1"/>
+    <col min="18" max="18" width="32.875" customWidth="1"/>
     <col min="19" max="19" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="B2" s="106" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="106"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3" s="103" t="s">
+      <c r="C2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105" t="s">
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="69" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="108" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="110"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="71"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="71"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="73"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="94" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="106" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="68" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="74" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="75" t="s">
+      <c r="S16" s="106" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="59" t="s">
+      <c r="E17" s="102"/>
+      <c r="F17" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="102"/>
+      <c r="H17" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="76" t="s">
+      <c r="I17" s="108"/>
+      <c r="J17" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="69" t="s">
+      <c r="K17" s="107"/>
+      <c r="L17" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="70" t="s">
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="75"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="75"/>
-    </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="67" t="s">
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="106"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="106"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64" t="s">
+      <c r="M19" s="110"/>
+      <c r="N19" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65" t="s">
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="74"/>
-      <c r="S19" s="75"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" customHeight="1">
+      <c r="R19" s="105"/>
+      <c r="S19" s="106"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>57</v>
       </c>
@@ -2812,55 +2817,55 @@
       <c r="E20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="24" t="s">
         <v>70</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="N20" s="62"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="24" t="s">
         <v>70</v>
       </c>
       <c r="P20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="75"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="Q20" s="112"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="106"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="57"/>
+      <c r="F21" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="99"/>
       <c r="L21" s="26" t="s">
         <v>59</v>
       </c>
@@ -2879,39 +2884,39 @@
       <c r="Q21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="69" t="s">
+      <c r="R21" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="88" t="s">
+      <c r="S21" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.25" customHeight="1">
+    <row r="22" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="51"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="98"/>
       <c r="L22" s="27" t="s">
         <v>59</v>
       </c>
@@ -2930,35 +2935,35 @@
       <c r="Q22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="69"/>
-      <c r="S22" s="89" t="s">
+      <c r="R22" s="107"/>
+      <c r="S22" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" customHeight="1">
+    <row r="23" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
+      <c r="C23" s="117"/>
+      <c r="D23" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="58"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="95"/>
       <c r="L23" s="30" t="s">
         <v>59</v>
       </c>
@@ -2977,16 +2982,16 @@
       <c r="Q23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="90" t="s">
+      <c r="R23" s="107"/>
+      <c r="S23" s="48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -2998,18 +3003,18 @@
       <c r="E24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="51">
-        <v>1</v>
-      </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52" t="s">
+      <c r="F24" s="98">
+        <v>1</v>
+      </c>
+      <c r="G24" s="98"/>
+      <c r="H24" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="51">
-        <v>1</v>
-      </c>
-      <c r="K24" s="51"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98">
+        <v>1</v>
+      </c>
+      <c r="K24" s="98"/>
       <c r="L24" s="27">
         <v>0</v>
       </c>
@@ -3028,16 +3033,16 @@
       <c r="Q24" s="27">
         <v>0</v>
       </c>
-      <c r="R24" s="69"/>
-      <c r="S24" s="89" t="s">
+      <c r="R24" s="107"/>
+      <c r="S24" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -3049,18 +3054,18 @@
       <c r="E25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="51">
-        <v>1</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51">
-        <v>1</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51">
-        <v>1</v>
-      </c>
-      <c r="K25" s="51"/>
+      <c r="F25" s="98">
+        <v>1</v>
+      </c>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98">
+        <v>1</v>
+      </c>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98">
+        <v>1</v>
+      </c>
+      <c r="K25" s="98"/>
       <c r="L25" s="27">
         <v>0</v>
       </c>
@@ -3079,16 +3084,16 @@
       <c r="Q25" s="27">
         <v>0</v>
       </c>
-      <c r="R25" s="69"/>
-      <c r="S25" s="89" t="s">
+      <c r="R25" s="107"/>
+      <c r="S25" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -3100,18 +3105,18 @@
       <c r="E26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="51">
-        <v>1</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52" t="s">
+      <c r="F26" s="98">
+        <v>1</v>
+      </c>
+      <c r="G26" s="98"/>
+      <c r="H26" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51">
-        <v>1</v>
-      </c>
-      <c r="K26" s="51"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98">
+        <v>1</v>
+      </c>
+      <c r="K26" s="98"/>
       <c r="L26" s="27">
         <v>0</v>
       </c>
@@ -3121,21 +3126,21 @@
       <c r="N26" s="27">
         <v>0</v>
       </c>
-      <c r="O26" s="52" t="s">
+      <c r="O26" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="89" t="s">
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -3147,18 +3152,18 @@
       <c r="E27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="51">
-        <v>1</v>
-      </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51">
-        <v>1</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51">
-        <v>1</v>
-      </c>
-      <c r="K27" s="51"/>
+      <c r="F27" s="98">
+        <v>1</v>
+      </c>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98">
+        <v>1</v>
+      </c>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98">
+        <v>1</v>
+      </c>
+      <c r="K27" s="98"/>
       <c r="L27" s="27">
         <v>0</v>
       </c>
@@ -3168,21 +3173,21 @@
       <c r="N27" s="27">
         <v>0</v>
       </c>
-      <c r="O27" s="52" t="s">
+      <c r="O27" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="89" t="s">
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>15</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -3194,23 +3199,23 @@
       <c r="E28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="51">
-        <v>1</v>
-      </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52" t="s">
+      <c r="F28" s="98">
+        <v>1</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="51">
-        <v>1</v>
-      </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52" t="s">
+      <c r="I28" s="97"/>
+      <c r="J28" s="98">
+        <v>1</v>
+      </c>
+      <c r="K28" s="98"/>
+      <c r="L28" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
       <c r="O28" s="27">
         <v>0</v>
       </c>
@@ -3220,16 +3225,16 @@
       <c r="Q28" s="27">
         <v>0</v>
       </c>
-      <c r="R28" s="69"/>
-      <c r="S28" s="89" t="s">
+      <c r="R28" s="107"/>
+      <c r="S28" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -3241,23 +3246,23 @@
       <c r="E29" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="51">
-        <v>1</v>
-      </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51">
-        <v>1</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51">
-        <v>1</v>
-      </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52" t="s">
+      <c r="F29" s="98">
+        <v>1</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98">
+        <v>1</v>
+      </c>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98">
+        <v>1</v>
+      </c>
+      <c r="K29" s="98"/>
+      <c r="L29" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
       <c r="O29" s="27">
         <v>0</v>
       </c>
@@ -3267,16 +3272,16 @@
       <c r="Q29" s="27">
         <v>0</v>
       </c>
-      <c r="R29" s="69"/>
-      <c r="S29" s="89" t="s">
+      <c r="R29" s="107"/>
+      <c r="S29" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>17</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="33" t="s">
@@ -3288,38 +3293,38 @@
       <c r="E30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="51">
-        <v>1</v>
-      </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52" t="s">
+      <c r="F30" s="98">
+        <v>1</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="51">
-        <v>1</v>
-      </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52" t="s">
+      <c r="I30" s="97"/>
+      <c r="J30" s="98">
+        <v>1</v>
+      </c>
+      <c r="K30" s="98"/>
+      <c r="L30" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52" t="s">
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="91" t="s">
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>18</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -3331,38 +3336,38 @@
       <c r="E31" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="58">
-        <v>1</v>
-      </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58">
-        <v>1</v>
-      </c>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58">
-        <v>1</v>
-      </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="77" t="s">
+      <c r="F31" s="95">
+        <v>1</v>
+      </c>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95">
+        <v>1</v>
+      </c>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95">
+        <v>1</v>
+      </c>
+      <c r="K31" s="95"/>
+      <c r="L31" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77" t="s">
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="90" t="s">
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>19</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -3374,18 +3379,18 @@
       <c r="E32" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="55">
-        <v>0</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55">
-        <v>0</v>
-      </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55">
-        <v>0</v>
-      </c>
-      <c r="K32" s="55"/>
+      <c r="F32" s="100">
+        <v>0</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100">
+        <v>0</v>
+      </c>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100">
+        <v>0</v>
+      </c>
+      <c r="K32" s="100"/>
       <c r="L32" s="26" t="s">
         <v>59</v>
       </c>
@@ -3404,16 +3409,16 @@
       <c r="Q32" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R32" s="69"/>
-      <c r="S32" s="88" t="s">
+      <c r="R32" s="107"/>
+      <c r="S32" s="46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="27" t="s">
@@ -3425,18 +3430,18 @@
       <c r="E33" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="52">
-        <v>0</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52">
-        <v>0</v>
-      </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="51"/>
+      <c r="F33" s="97">
+        <v>0</v>
+      </c>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97">
+        <v>0</v>
+      </c>
+      <c r="I33" s="97"/>
+      <c r="J33" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="98"/>
       <c r="L33" s="27" t="s">
         <v>59</v>
       </c>
@@ -3455,16 +3460,16 @@
       <c r="Q33" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="69"/>
-      <c r="S33" s="89" t="s">
+      <c r="R33" s="107"/>
+      <c r="S33" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>21</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -3476,18 +3481,18 @@
       <c r="E34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="52">
-        <v>0</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="52">
-        <v>0</v>
-      </c>
-      <c r="K34" s="52"/>
+      <c r="F34" s="97">
+        <v>0</v>
+      </c>
+      <c r="G34" s="97"/>
+      <c r="H34" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="98"/>
+      <c r="J34" s="97">
+        <v>0</v>
+      </c>
+      <c r="K34" s="97"/>
       <c r="L34" s="27" t="s">
         <v>59</v>
       </c>
@@ -3506,16 +3511,16 @@
       <c r="Q34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="69"/>
-      <c r="S34" s="89" t="s">
+      <c r="R34" s="107"/>
+      <c r="S34" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>22</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -3527,18 +3532,18 @@
       <c r="E35" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="77">
-        <v>0</v>
-      </c>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77">
-        <v>0</v>
-      </c>
-      <c r="K35" s="77"/>
+      <c r="F35" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96">
+        <v>0</v>
+      </c>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96">
+        <v>0</v>
+      </c>
+      <c r="K35" s="96"/>
       <c r="L35" s="30" t="s">
         <v>59</v>
       </c>
@@ -3557,16 +3562,16 @@
       <c r="Q35" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R35" s="69"/>
-      <c r="S35" s="90" t="s">
+      <c r="R35" s="107"/>
+      <c r="S35" s="48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>23</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -3578,18 +3583,18 @@
       <c r="E36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53">
-        <v>1</v>
-      </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="51">
-        <v>1</v>
-      </c>
-      <c r="K36" s="51"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="108">
+        <v>1</v>
+      </c>
+      <c r="I36" s="108"/>
+      <c r="J36" s="98">
+        <v>1</v>
+      </c>
+      <c r="K36" s="98"/>
       <c r="L36" s="26" t="s">
         <v>59</v>
       </c>
@@ -3608,16 +3613,16 @@
       <c r="Q36" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R36" s="69"/>
-      <c r="S36" s="89" t="s">
+      <c r="R36" s="107"/>
+      <c r="S36" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>24</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -3629,18 +3634,18 @@
       <c r="E37" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="58">
-        <v>1</v>
-      </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58">
-        <v>1</v>
-      </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="77" t="s">
+      <c r="F37" s="95">
+        <v>1</v>
+      </c>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95">
+        <v>1</v>
+      </c>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="K37" s="77"/>
+      <c r="K37" s="96"/>
       <c r="L37" s="30" t="s">
         <v>59</v>
       </c>
@@ -3659,16 +3664,16 @@
       <c r="Q37" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="69"/>
-      <c r="S37" s="90" t="s">
+      <c r="R37" s="107"/>
+      <c r="S37" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>25</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -3680,18 +3685,18 @@
       <c r="E38" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="57">
-        <v>1</v>
-      </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="55" t="s">
+      <c r="F38" s="99">
+        <v>1</v>
+      </c>
+      <c r="G38" s="99"/>
+      <c r="H38" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="55"/>
-      <c r="J38" s="57">
-        <v>1</v>
-      </c>
-      <c r="K38" s="57"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="99">
+        <v>1</v>
+      </c>
+      <c r="K38" s="99"/>
       <c r="L38" s="28">
         <v>1</v>
       </c>
@@ -3710,16 +3715,16 @@
       <c r="Q38" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="69"/>
-      <c r="S38" s="92" t="s">
+      <c r="R38" s="107"/>
+      <c r="S38" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>26</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3731,18 +3736,18 @@
       <c r="E39" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="51">
-        <v>1</v>
-      </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51">
-        <v>1</v>
-      </c>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51">
-        <v>1</v>
-      </c>
-      <c r="K39" s="51"/>
+      <c r="F39" s="98">
+        <v>1</v>
+      </c>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98">
+        <v>1</v>
+      </c>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98">
+        <v>1</v>
+      </c>
+      <c r="K39" s="98"/>
       <c r="L39" s="25">
         <v>1</v>
       </c>
@@ -3761,16 +3766,16 @@
       <c r="Q39" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R39" s="69"/>
-      <c r="S39" s="91" t="s">
+      <c r="R39" s="107"/>
+      <c r="S39" s="49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -3782,23 +3787,23 @@
       <c r="E40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="51">
-        <v>1</v>
-      </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52" t="s">
+      <c r="F40" s="98">
+        <v>1</v>
+      </c>
+      <c r="G40" s="98"/>
+      <c r="H40" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="51">
-        <v>1</v>
-      </c>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52" t="s">
+      <c r="I40" s="97"/>
+      <c r="J40" s="98">
+        <v>1</v>
+      </c>
+      <c r="K40" s="98"/>
+      <c r="L40" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97"/>
       <c r="O40" s="25">
         <v>1</v>
       </c>
@@ -3808,16 +3813,16 @@
       <c r="Q40" s="27">
         <v>0</v>
       </c>
-      <c r="R40" s="69"/>
-      <c r="S40" s="89" t="s">
+      <c r="R40" s="107"/>
+      <c r="S40" s="47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>28</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="30" t="s">
@@ -3829,18 +3834,18 @@
       <c r="E41" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="58">
-        <v>1</v>
-      </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58">
-        <v>1</v>
-      </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58">
-        <v>1</v>
-      </c>
-      <c r="K41" s="58"/>
+      <c r="F41" s="95">
+        <v>1</v>
+      </c>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95">
+        <v>1</v>
+      </c>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95">
+        <v>1</v>
+      </c>
+      <c r="K41" s="95"/>
       <c r="L41" s="30">
         <v>0</v>
       </c>
@@ -3859,16 +3864,16 @@
       <c r="Q41" s="30">
         <v>0</v>
       </c>
-      <c r="R41" s="69"/>
-      <c r="S41" s="90" t="s">
+      <c r="R41" s="107"/>
+      <c r="S41" s="48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>29</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -3880,23 +3885,23 @@
       <c r="E42" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="51">
-        <v>1</v>
-      </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52" t="s">
+      <c r="F42" s="98">
+        <v>1</v>
+      </c>
+      <c r="G42" s="98"/>
+      <c r="H42" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="51">
-        <v>1</v>
-      </c>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52" t="s">
+      <c r="I42" s="97"/>
+      <c r="J42" s="98">
+        <v>1</v>
+      </c>
+      <c r="K42" s="98"/>
+      <c r="L42" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
       <c r="O42" s="27">
         <v>0</v>
       </c>
@@ -3906,16 +3911,16 @@
       <c r="Q42" s="25">
         <v>1</v>
       </c>
-      <c r="R42" s="69"/>
-      <c r="S42" s="91" t="s">
+      <c r="R42" s="107"/>
+      <c r="S42" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>30</v>
       </c>
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="27" t="s">
@@ -3927,18 +3932,18 @@
       <c r="E43" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="51">
-        <v>1</v>
-      </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51">
-        <v>1</v>
-      </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51">
-        <v>1</v>
-      </c>
-      <c r="K43" s="51"/>
+      <c r="F43" s="98">
+        <v>1</v>
+      </c>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98">
+        <v>1</v>
+      </c>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98">
+        <v>1</v>
+      </c>
+      <c r="K43" s="98"/>
       <c r="L43" s="27">
         <v>0</v>
       </c>
@@ -3957,16 +3962,16 @@
       <c r="Q43" s="38">
         <v>1</v>
       </c>
-      <c r="R43" s="69"/>
-      <c r="S43" s="91" t="s">
+      <c r="R43" s="107"/>
+      <c r="S43" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>31</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="33" t="s">
@@ -3978,18 +3983,18 @@
       <c r="E44" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="51">
-        <v>1</v>
-      </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52" t="s">
+      <c r="F44" s="98">
+        <v>1</v>
+      </c>
+      <c r="G44" s="98"/>
+      <c r="H44" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="51">
-        <v>1</v>
-      </c>
-      <c r="K44" s="51"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="98">
+        <v>1</v>
+      </c>
+      <c r="K44" s="98"/>
       <c r="L44" s="27">
         <v>0</v>
       </c>
@@ -4008,16 +4013,16 @@
       <c r="Q44" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="69"/>
-      <c r="S44" s="91" t="s">
+      <c r="R44" s="107"/>
+      <c r="S44" s="49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>32</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -4029,25 +4034,25 @@
       <c r="E45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="58">
-        <v>1</v>
-      </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58">
-        <v>1</v>
-      </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58">
-        <v>1</v>
-      </c>
-      <c r="K45" s="58"/>
+      <c r="F45" s="95">
+        <v>1</v>
+      </c>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95">
+        <v>1</v>
+      </c>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95">
+        <v>1</v>
+      </c>
+      <c r="K45" s="95"/>
       <c r="L45" s="30">
         <v>0</v>
       </c>
       <c r="M45" s="35">
         <v>0</v>
       </c>
-      <c r="N45" s="79">
+      <c r="N45" s="39">
         <v>1</v>
       </c>
       <c r="O45" s="30" t="s">
@@ -4059,16 +4064,16 @@
       <c r="Q45" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="69"/>
-      <c r="S45" s="93" t="s">
+      <c r="R45" s="107"/>
+      <c r="S45" s="51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>33</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="33" t="s">
@@ -4080,18 +4085,18 @@
       <c r="E46" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="51">
-        <v>1</v>
-      </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52" t="s">
+      <c r="F46" s="98">
+        <v>1</v>
+      </c>
+      <c r="G46" s="98"/>
+      <c r="H46" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="51">
-        <v>1</v>
-      </c>
-      <c r="K46" s="51"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="98">
+        <v>1</v>
+      </c>
+      <c r="K46" s="98"/>
       <c r="L46" s="27">
         <v>0</v>
       </c>
@@ -4101,21 +4106,21 @@
       <c r="N46" s="27">
         <v>0</v>
       </c>
-      <c r="O46" s="52" t="s">
+      <c r="O46" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="69"/>
-      <c r="S46" s="89" t="s">
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>34</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="27" t="s">
@@ -4127,18 +4132,18 @@
       <c r="E47" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="51">
-        <v>1</v>
-      </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51">
-        <v>1</v>
-      </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51">
-        <v>1</v>
-      </c>
-      <c r="K47" s="51"/>
+      <c r="F47" s="98">
+        <v>1</v>
+      </c>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98">
+        <v>1</v>
+      </c>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98">
+        <v>1</v>
+      </c>
+      <c r="K47" s="98"/>
       <c r="L47" s="27">
         <v>0</v>
       </c>
@@ -4148,21 +4153,21 @@
       <c r="N47" s="27">
         <v>0</v>
       </c>
-      <c r="O47" s="52" t="s">
+      <c r="O47" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="89" t="s">
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>35</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="33" t="s">
@@ -4174,23 +4179,23 @@
       <c r="E48" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51">
-        <v>1</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52" t="s">
+      <c r="F48" s="98">
+        <v>1</v>
+      </c>
+      <c r="G48" s="98"/>
+      <c r="H48" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="51">
-        <v>1</v>
-      </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52" t="s">
+      <c r="I48" s="97"/>
+      <c r="J48" s="98">
+        <v>1</v>
+      </c>
+      <c r="K48" s="98"/>
+      <c r="L48" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
       <c r="O48" s="27">
         <v>0</v>
       </c>
@@ -4200,16 +4205,16 @@
       <c r="Q48" s="27">
         <v>0</v>
       </c>
-      <c r="R48" s="69"/>
-      <c r="S48" s="89" t="s">
+      <c r="R48" s="107"/>
+      <c r="S48" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>36</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -4221,23 +4226,23 @@
       <c r="E49" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="51">
-        <v>1</v>
-      </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51">
-        <v>1</v>
-      </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51">
-        <v>1</v>
-      </c>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52" t="s">
+      <c r="F49" s="98">
+        <v>1</v>
+      </c>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98">
+        <v>1</v>
+      </c>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98">
+        <v>1</v>
+      </c>
+      <c r="K49" s="98"/>
+      <c r="L49" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="97"/>
       <c r="O49" s="27">
         <v>0</v>
       </c>
@@ -4247,16 +4252,16 @@
       <c r="Q49" s="27">
         <v>0</v>
       </c>
-      <c r="R49" s="69"/>
-      <c r="S49" s="89" t="s">
+      <c r="R49" s="107"/>
+      <c r="S49" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>37</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="41" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -4268,38 +4273,38 @@
       <c r="E50" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="51">
-        <v>1</v>
-      </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="52" t="s">
+      <c r="F50" s="98">
+        <v>1</v>
+      </c>
+      <c r="G50" s="98"/>
+      <c r="H50" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="51">
-        <v>1</v>
-      </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52" t="s">
+      <c r="I50" s="97"/>
+      <c r="J50" s="98">
+        <v>1</v>
+      </c>
+      <c r="K50" s="98"/>
+      <c r="L50" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52" t="s">
+      <c r="M50" s="97"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="89" t="s">
+      <c r="P50" s="97"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>38</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="27" t="s">
@@ -4311,38 +4316,38 @@
       <c r="E51" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51">
-        <v>1</v>
-      </c>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52" t="s">
+      <c r="F51" s="98">
+        <v>1</v>
+      </c>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98">
+        <v>1</v>
+      </c>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98">
+        <v>1</v>
+      </c>
+      <c r="K51" s="98"/>
+      <c r="L51" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52" t="s">
+      <c r="M51" s="97"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="89" t="s">
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>39</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C52" s="35" t="s">
@@ -4354,96 +4359,96 @@
       <c r="E52" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="58">
-        <v>1</v>
-      </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="77" t="s">
+      <c r="F52" s="95">
+        <v>1</v>
+      </c>
+      <c r="G52" s="95"/>
+      <c r="H52" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="77"/>
-      <c r="J52" s="58">
-        <v>1</v>
-      </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="77" t="s">
+      <c r="I52" s="96"/>
+      <c r="J52" s="95">
+        <v>1</v>
+      </c>
+      <c r="K52" s="95"/>
+      <c r="L52" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77" t="s">
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="90" t="s">
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
-      <c r="B55" s="106" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="B56" s="68" t="s">
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="104" t="s">
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="107" t="s">
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="52" t="s">
         <v>56</v>
       </c>
       <c r="U56" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40</v>
       </c>
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="94" t="s">
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
       <c r="S57" s="13" t="s">
         <v>93</v>
       </c>
@@ -4451,31 +4456,31 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>41</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="109" t="s">
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
       <c r="S58" s="13" t="s">
         <v>89</v>
       </c>
@@ -4483,29 +4488,29 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>42</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
       <c r="S59" s="13" t="s">
         <v>89</v>
       </c>
@@ -4513,29 +4518,29 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>43</v>
       </c>
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="113"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
       <c r="S60" s="13" t="s">
         <v>89</v>
       </c>
@@ -4543,517 +4548,679 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>44</v>
       </c>
-      <c r="B61" s="113" t="s">
+      <c r="B61" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
       <c r="S61" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>45</v>
       </c>
-      <c r="B62" s="113" t="s">
+      <c r="B62" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
       <c r="S62" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>46</v>
       </c>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
       <c r="S63" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>47</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
       <c r="S64" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>48</v>
       </c>
-      <c r="B65" s="113" t="s">
+      <c r="B65" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
       <c r="S65" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>49</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="70"/>
-      <c r="P66" s="70"/>
-      <c r="Q66" s="70"/>
-      <c r="R66" s="70"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="108"/>
+      <c r="R66" s="108"/>
       <c r="S66" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>50</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="70"/>
-      <c r="P67" s="70"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="70"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="108"/>
+      <c r="R67" s="108"/>
       <c r="S67" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>51</v>
       </c>
-      <c r="B68" s="113" t="s">
+      <c r="B68" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="113"/>
-      <c r="I68" s="113"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="70"/>
-      <c r="P68" s="70"/>
-      <c r="Q68" s="70"/>
-      <c r="R68" s="70"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
       <c r="S68" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>52</v>
       </c>
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
       <c r="S69" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>53</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="70"/>
-      <c r="O70" s="70"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
       <c r="S70" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>54</v>
       </c>
-      <c r="B71" s="113" t="s">
+      <c r="B71" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
-      <c r="R71" s="70"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
       <c r="S71" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>55</v>
       </c>
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="113"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="70"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="70"/>
-      <c r="R72" s="70"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
       <c r="S72" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>56</v>
       </c>
-      <c r="B73" s="113" t="s">
+      <c r="B73" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
-      <c r="R73" s="70"/>
-      <c r="S73" s="114" t="s">
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>57</v>
       </c>
-      <c r="B74" s="113" t="s">
+      <c r="B74" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
-      <c r="J74" s="113"/>
-      <c r="K74" s="113"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="113"/>
-      <c r="N74" s="116" t="s">
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="O74" s="94"/>
-      <c r="P74" s="94"/>
-      <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="115" t="s">
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
+      <c r="R74" s="80"/>
+      <c r="S74" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>58</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="113"/>
-      <c r="J75" s="113"/>
-      <c r="K75" s="113"/>
-      <c r="L75" s="113"/>
-      <c r="M75" s="113"/>
-      <c r="N75" s="116" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
+      <c r="R75" s="80"/>
       <c r="S75" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="78"/>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="B77" s="117" t="s">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="92"/>
+      <c r="L76" s="92"/>
+      <c r="M76" s="92"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="82"/>
+      <c r="P76" s="82"/>
+      <c r="Q76" s="82"/>
+      <c r="R76" s="82"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B77" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="117"/>
-      <c r="D77" s="117"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
-      <c r="R77" s="78"/>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="82"/>
+      <c r="O77" s="82"/>
+      <c r="P77" s="82"/>
+      <c r="Q77" s="82"/>
+      <c r="R77" s="82"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>59</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="78"/>
-      <c r="O78" s="78"/>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="78"/>
-      <c r="R78" s="78"/>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="78"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="78"/>
-      <c r="R79" s="78"/>
-    </row>
-    <row r="80" spans="1:19">
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="78"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="82"/>
+      <c r="Q78" s="82"/>
+      <c r="R78" s="82"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="82"/>
+      <c r="R79" s="82"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="82"/>
+      <c r="R80" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="O17:Q18"/>
+    <mergeCell ref="R16:R20"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="J17:K20"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F17:G20"/>
+    <mergeCell ref="H17:I20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B56:M56"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="N57:R57"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R21:R52"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B65:M65"/>
+    <mergeCell ref="B66:M66"/>
+    <mergeCell ref="B67:M67"/>
+    <mergeCell ref="B68:M68"/>
+    <mergeCell ref="B69:M69"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B61:M61"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="B63:M63"/>
+    <mergeCell ref="B64:M64"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="N79:R79"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B71:M71"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B73:M73"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="N74:R74"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
@@ -5078,168 +5245,6 @@
     <mergeCell ref="B76:M76"/>
     <mergeCell ref="N76:R76"/>
     <mergeCell ref="B77:M77"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="B78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="N79:R79"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B71:M71"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B73:M73"/>
-    <mergeCell ref="B74:M74"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="B65:M65"/>
-    <mergeCell ref="B66:M66"/>
-    <mergeCell ref="B67:M67"/>
-    <mergeCell ref="B68:M68"/>
-    <mergeCell ref="B69:M69"/>
-    <mergeCell ref="B60:M60"/>
-    <mergeCell ref="B61:M61"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="B63:M63"/>
-    <mergeCell ref="B64:M64"/>
-    <mergeCell ref="B56:M56"/>
-    <mergeCell ref="N56:R56"/>
-    <mergeCell ref="B58:M58"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="N57:R57"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R21:R52"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="L17:N18"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="R16:R20"/>
-    <mergeCell ref="S16:S20"/>
-    <mergeCell ref="J17:K20"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F17:G20"/>
-    <mergeCell ref="H17:I20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5247,14 +5252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
